--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Winner_determination/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Winner_determination/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\Winner_determination\dataset_09\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA75B799-53E2-4152-AB8E-0888272565F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_Winner_dataset_09_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>412.1685762400243</v>
+        <v>412.16857624002432</v>
       </c>
       <c r="H2">
-        <v>95.39406122318621</v>
+        <v>95.394061223186213</v>
       </c>
       <c r="I2">
-        <v>316.7745150168381</v>
+        <v>316.77451501683811</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>316.7745150168381</v>
+        <v>316.77451501683811</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -666,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>412.1685762400243</v>
+        <v>412.16857624002432</v>
       </c>
       <c r="P2">
-        <v>95.39406122318621</v>
+        <v>95.394061223186213</v>
       </c>
       <c r="Q2">
         <v>1.463416106107962</v>
@@ -678,10 +767,10 @@
         <v>177.1733093957784</v>
       </c>
       <c r="S2">
-        <v>4.320694296426954</v>
+        <v>4.3206942964269537</v>
       </c>
       <c r="T2">
-        <v>4.320694296426954</v>
+        <v>4.3206942964269537</v>
       </c>
       <c r="U2">
         <v>1.463416106107962</v>
@@ -690,19 +779,19 @@
         <v>177.1733093957784</v>
       </c>
       <c r="W2">
-        <v>161.4450911389316</v>
+        <v>161.44509113893159</v>
       </c>
       <c r="X2">
-        <v>478.2196061557697</v>
+        <v>478.21960615576972</v>
       </c>
       <c r="Y2">
         <v>161.4450911389317</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,19 +811,19 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>452.2158476445385</v>
+        <v>452.21584764453848</v>
       </c>
       <c r="H3">
-        <v>86.1376638219714</v>
+        <v>86.137663821971401</v>
       </c>
       <c r="I3">
-        <v>366.0781838225672</v>
+        <v>366.07818382256721</v>
       </c>
       <c r="J3">
         <v>0.1</v>
       </c>
       <c r="K3">
-        <v>378.5815993689988</v>
+        <v>378.58159936899881</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -743,46 +832,46 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9669729971893199</v>
+        <v>0.96697299718931995</v>
       </c>
       <c r="O3">
-        <v>467.5536963215355</v>
+        <v>467.55369632153548</v>
       </c>
       <c r="P3">
-        <v>88.97209695253665</v>
+        <v>88.972096952536646</v>
       </c>
       <c r="Q3">
-        <v>1.659191397386743</v>
+        <v>1.6591913973867429</v>
       </c>
       <c r="R3">
         <v>230.9598614978909</v>
       </c>
       <c r="S3">
-        <v>5.255059870859943</v>
+        <v>5.2550598708599434</v>
       </c>
       <c r="T3">
-        <v>5.249920041704108</v>
+        <v>5.2499200417041081</v>
       </c>
       <c r="U3">
         <v>1.658212846335954</v>
       </c>
       <c r="V3">
-        <v>223.2436031196064</v>
+        <v>223.24360311960641</v>
       </c>
       <c r="W3">
-        <v>112.2874228265861</v>
+        <v>112.28742282658609</v>
       </c>
       <c r="X3">
-        <v>478.3656066491532</v>
+        <v>478.36560664915322</v>
       </c>
       <c r="Y3">
-        <v>99.78400728015441</v>
+        <v>99.784007280154412</v>
       </c>
       <c r="Z3">
-        <v>1.125304804720129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>1.1253048047201291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>521.2717009190546</v>
+        <v>521.27170091905464</v>
       </c>
       <c r="H4">
-        <v>75.47449909272805</v>
+        <v>75.474499092728053</v>
       </c>
       <c r="I4">
-        <v>445.7972018263266</v>
+        <v>445.79720182632661</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>445.7972018263266</v>
+        <v>445.79720182632661</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -826,34 +915,34 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>521.2717009190546</v>
+        <v>521.27170091905464</v>
       </c>
       <c r="P4">
-        <v>75.47449909272805</v>
+        <v>75.474499092728053</v>
       </c>
       <c r="Q4">
-        <v>1.932476565865139</v>
+        <v>1.9324765658651391</v>
       </c>
       <c r="R4">
-        <v>299.9445010092199</v>
+        <v>299.94450100921989</v>
       </c>
       <c r="S4">
-        <v>6.906593712912485</v>
+        <v>6.9065937129124846</v>
       </c>
       <c r="T4">
-        <v>6.906593712912485</v>
+        <v>6.9065937129124846</v>
       </c>
       <c r="U4">
-        <v>1.932476565865139</v>
+        <v>1.9324765658651391</v>
       </c>
       <c r="V4">
-        <v>299.9445010092199</v>
+        <v>299.94450100921989</v>
       </c>
       <c r="W4">
         <v>106.6140894802907</v>
       </c>
       <c r="X4">
-        <v>552.4112913066173</v>
+        <v>552.41129130661727</v>
       </c>
       <c r="Y4">
         <v>106.6140894802907</v>
@@ -862,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>446.0843453221109</v>
+        <v>446.08434532211089</v>
       </c>
       <c r="H5">
-        <v>72.13947352536437</v>
+        <v>72.139473525364366</v>
       </c>
       <c r="I5">
         <v>373.9448717967465</v>
@@ -903,46 +992,46 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9658339949899084</v>
+        <v>0.96583399498990841</v>
       </c>
       <c r="O5">
-        <v>450.4232113619458</v>
+        <v>450.42321136194579</v>
       </c>
       <c r="P5">
-        <v>63.25018397160873</v>
+        <v>63.250183971608728</v>
       </c>
       <c r="Q5">
-        <v>1.963089574247603</v>
+        <v>1.9630895742476031</v>
       </c>
       <c r="R5">
-        <v>263.0072506664292</v>
+        <v>263.00725066642917</v>
       </c>
       <c r="S5">
-        <v>7.121294881357633</v>
+        <v>7.1212948813576329</v>
       </c>
       <c r="T5">
-        <v>6.183637383564587</v>
+        <v>6.1836373835645873</v>
       </c>
       <c r="U5">
         <v>1.821906671720543</v>
       </c>
       <c r="V5">
-        <v>242.5134836864777</v>
+        <v>242.51348368647771</v>
       </c>
       <c r="W5">
-        <v>149.6287783754188</v>
+        <v>149.62877837541879</v>
       </c>
       <c r="X5">
-        <v>523.5736501721653</v>
+        <v>523.57365017216534</v>
       </c>
       <c r="Y5">
-        <v>136.4006227818282</v>
+        <v>136.40062278182819</v>
       </c>
       <c r="Z5">
         <v>1.096980170059406</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>489.2892406260157</v>
+        <v>489.28924062601573</v>
       </c>
       <c r="H6">
-        <v>81.81325462658531</v>
+        <v>81.813254626585305</v>
       </c>
       <c r="I6">
-        <v>407.4759859994304</v>
+        <v>407.47598599943041</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
-        <v>407.4759859994304</v>
+        <v>407.47598599943041</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -986,34 +1075,34 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>489.2892406260157</v>
+        <v>489.28924062601573</v>
       </c>
       <c r="P6">
-        <v>81.81325462658531</v>
+        <v>81.813254626585305</v>
       </c>
       <c r="Q6">
         <v>1.788514541251961</v>
       </c>
       <c r="R6">
-        <v>261.1517904326333</v>
+        <v>261.15179043263328</v>
       </c>
       <c r="S6">
-        <v>5.980561986676187</v>
+        <v>5.9805619866761868</v>
       </c>
       <c r="T6">
-        <v>5.980561986676187</v>
+        <v>5.9805619866761868</v>
       </c>
       <c r="U6">
         <v>1.788514541251961</v>
       </c>
       <c r="V6">
-        <v>261.1517904326333</v>
+        <v>261.15179043263328</v>
       </c>
       <c r="W6">
         <v>105.3003680787519</v>
       </c>
       <c r="X6">
-        <v>512.7763540781823</v>
+        <v>512.77635407818229</v>
       </c>
       <c r="Y6">
         <v>105.3003680787519</v>
@@ -1022,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,19 +1131,19 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>420.6784521965698</v>
+        <v>420.67845219656982</v>
       </c>
       <c r="H7">
-        <v>57.14093891175369</v>
+        <v>57.140938911753693</v>
       </c>
       <c r="I7">
-        <v>363.5375132848162</v>
+        <v>363.53751328481621</v>
       </c>
       <c r="J7">
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>414.3483706240805</v>
+        <v>414.34837062408047</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1063,46 +1152,46 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.8773716492169755</v>
+        <v>0.87737164921697552</v>
       </c>
       <c r="O7">
-        <v>481.6271516154353</v>
+        <v>481.62715161543531</v>
       </c>
       <c r="P7">
-        <v>67.27878099135478</v>
+        <v>67.278780991354779</v>
       </c>
       <c r="Q7">
-        <v>1.96832537328394</v>
+        <v>1.9683253732839401</v>
       </c>
       <c r="R7">
-        <v>281.9218389151837</v>
+        <v>281.92183891518368</v>
       </c>
       <c r="S7">
         <v>7.158678330948411</v>
       </c>
       <c r="T7">
-        <v>7.362120052774243</v>
+        <v>7.3621200527742428</v>
       </c>
       <c r="U7">
-        <v>1.996347941910836</v>
+        <v>1.9963479419108361</v>
       </c>
       <c r="V7">
         <v>249.4643174894839</v>
       </c>
       <c r="W7">
-        <v>157.4630093452869</v>
+        <v>157.46300934528691</v>
       </c>
       <c r="X7">
-        <v>521.0005226301031</v>
+        <v>521.00052263010309</v>
       </c>
       <c r="Y7">
         <v>106.6521520060226</v>
       </c>
       <c r="Z7">
-        <v>1.476416615919716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1.4764166159197161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1211,19 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>468.1797745362393</v>
+        <v>468.17977453623928</v>
       </c>
       <c r="H8">
-        <v>62.45839786868653</v>
+        <v>62.458397868686532</v>
       </c>
       <c r="I8">
-        <v>405.7213766675528</v>
+        <v>405.72137666755282</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>408.2192131333358</v>
+        <v>408.21921313333581</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1143,46 +1232,46 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.9938811393843748</v>
+        <v>0.99388113938437483</v>
       </c>
       <c r="O8">
-        <v>475.9860232277125</v>
+        <v>475.98602322771251</v>
       </c>
       <c r="P8">
         <v>67.76681009437668</v>
       </c>
       <c r="Q8">
-        <v>1.94931594237587</v>
+        <v>1.9493159423758699</v>
       </c>
       <c r="R8">
-        <v>276.1202898524093</v>
+        <v>276.12028985240931</v>
       </c>
       <c r="S8">
-        <v>7.02388119737113</v>
+        <v>7.0238811973711304</v>
       </c>
       <c r="T8">
-        <v>7.495865896537204</v>
+        <v>7.4958658965372038</v>
       </c>
       <c r="U8">
-        <v>2.014351654773052</v>
+        <v>2.0143516547730518</v>
       </c>
       <c r="V8">
-        <v>279.9081995662904</v>
+        <v>279.90819956629042</v>
       </c>
       <c r="W8">
         <v>149.6192892038826</v>
       </c>
       <c r="X8">
-        <v>555.3406658714354</v>
+        <v>555.34066587143536</v>
       </c>
       <c r="Y8">
-        <v>147.1214527380995</v>
+        <v>147.12145273809949</v>
       </c>
       <c r="Z8">
         <v>1.016978057375695</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>403.0096652906425</v>
+        <v>403.00966529064249</v>
       </c>
       <c r="H9">
-        <v>73.40989263293029</v>
+        <v>73.409892632930294</v>
       </c>
       <c r="I9">
-        <v>329.5997726577122</v>
+        <v>329.59977265771221</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>403.9570677644259</v>
+        <v>403.95706776442591</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1223,46 +1312,46 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.8159277283642519</v>
+        <v>0.81592772836425187</v>
       </c>
       <c r="O9">
-        <v>482.4052648688771</v>
+        <v>482.40526486887711</v>
       </c>
       <c r="P9">
-        <v>78.44819710445111</v>
+        <v>78.448197104451111</v>
       </c>
       <c r="Q9">
         <v>1.816346061805898</v>
       </c>
       <c r="R9">
-        <v>261.4679938979834</v>
+        <v>261.46799389798338</v>
       </c>
       <c r="S9">
-        <v>6.149348011485475</v>
+        <v>6.1493480114854746</v>
       </c>
       <c r="T9">
-        <v>5.489854988697531</v>
+        <v>5.4898549886975312</v>
       </c>
       <c r="U9">
         <v>1.702901841456294</v>
       </c>
       <c r="V9">
-        <v>204.5899313119864</v>
+        <v>204.58993131198639</v>
       </c>
       <c r="W9">
-        <v>208.0783839115732</v>
+        <v>208.07838391157321</v>
       </c>
       <c r="X9">
-        <v>537.6781565692854</v>
+        <v>537.67815656928542</v>
       </c>
       <c r="Y9">
-        <v>133.7210888048595</v>
+        <v>133.72108880485951</v>
       </c>
       <c r="Z9">
         <v>1.556062590959187</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,13 +1371,13 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>398.8029626731476</v>
+        <v>398.80296267314759</v>
       </c>
       <c r="H10">
-        <v>91.41128897561912</v>
+        <v>91.411288975619115</v>
       </c>
       <c r="I10">
-        <v>307.3916736975285</v>
+        <v>307.39167369752852</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1306,43 +1395,43 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>398.8029626731476</v>
+        <v>398.80296267314759</v>
       </c>
       <c r="P10">
-        <v>91.41128897561912</v>
+        <v>91.411288975619115</v>
       </c>
       <c r="Q10">
-        <v>1.473098484428451</v>
+        <v>1.4730984844284509</v>
       </c>
       <c r="R10">
-        <v>172.7338424478928</v>
+        <v>172.73384244789281</v>
       </c>
       <c r="S10">
-        <v>4.36273207764869</v>
+        <v>4.3627320776486904</v>
       </c>
       <c r="T10">
-        <v>4.36273207764869</v>
+        <v>4.3627320776486904</v>
       </c>
       <c r="U10">
-        <v>1.473098484428451</v>
+        <v>1.4730984844284509</v>
       </c>
       <c r="V10">
-        <v>172.7338424478928</v>
+        <v>172.73384244789281</v>
       </c>
       <c r="W10">
-        <v>140.205610089648</v>
+        <v>140.20561008964799</v>
       </c>
       <c r="X10">
-        <v>447.5972837871765</v>
+        <v>447.59728378717648</v>
       </c>
       <c r="Y10">
         <v>140.2056100896481</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>0.99999999999999922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1362,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>497.8795435321354</v>
+        <v>497.87954353213541</v>
       </c>
       <c r="H11">
-        <v>76.40940889989116</v>
+        <v>76.409408899891162</v>
       </c>
       <c r="I11">
-        <v>421.4701346322443</v>
+        <v>421.47013463224431</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1386,43 +1475,43 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>497.8795435321354</v>
+        <v>497.87954353213541</v>
       </c>
       <c r="P11">
-        <v>76.40940889989116</v>
+        <v>76.409408899891162</v>
       </c>
       <c r="Q11">
         <v>1.874252325579612</v>
       </c>
       <c r="R11">
-        <v>278.2596223054597</v>
+        <v>278.25962230545969</v>
       </c>
       <c r="S11">
-        <v>6.515945492844201</v>
+        <v>6.5159454928442013</v>
       </c>
       <c r="T11">
-        <v>6.515945492844201</v>
+        <v>6.5159454928442013</v>
       </c>
       <c r="U11">
         <v>1.874252325579612</v>
       </c>
       <c r="V11">
-        <v>278.2596223054597</v>
+        <v>278.25962230545969</v>
       </c>
       <c r="W11">
-        <v>140.7306297283507</v>
+        <v>140.73062972835069</v>
       </c>
       <c r="X11">
-        <v>562.2007643605949</v>
+        <v>562.20076436059492</v>
       </c>
       <c r="Y11">
-        <v>140.7306297283507</v>
+        <v>140.73062972835069</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>462.6012897639939</v>
+        <v>462.60128976399392</v>
       </c>
       <c r="H12">
-        <v>57.72769095558216</v>
+        <v>57.727690955582162</v>
       </c>
       <c r="I12">
-        <v>404.8735988084117</v>
+        <v>404.87359880841171</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>404.8735988084117</v>
+        <v>404.87359880841171</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1466,34 +1555,34 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>462.6012897639939</v>
+        <v>462.60128976399392</v>
       </c>
       <c r="P12">
-        <v>57.72769095558216</v>
+        <v>57.727690955582162</v>
       </c>
       <c r="Q12">
-        <v>2.081128566901605</v>
+        <v>2.0811285669016049</v>
       </c>
       <c r="R12">
-        <v>284.7348520594823</v>
+        <v>284.73485205948231</v>
       </c>
       <c r="S12">
-        <v>8.01350759239507</v>
+        <v>8.0135075923950705</v>
       </c>
       <c r="T12">
-        <v>8.01350759239507</v>
+        <v>8.0135075923950705</v>
       </c>
       <c r="U12">
-        <v>2.081128566901605</v>
+        <v>2.0811285669016049</v>
       </c>
       <c r="V12">
-        <v>284.7348520594823</v>
+        <v>284.73485205948231</v>
       </c>
       <c r="W12">
         <v>106.4175455970414</v>
       </c>
       <c r="X12">
-        <v>511.2911444054531</v>
+        <v>511.29114440545311</v>
       </c>
       <c r="Y12">
         <v>106.4175455970414</v>
@@ -1502,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1611,19 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>508.7130978629066</v>
+        <v>508.71309786290658</v>
       </c>
       <c r="H13">
-        <v>82.8086842509171</v>
+        <v>82.808684250917096</v>
       </c>
       <c r="I13">
-        <v>425.9044136119895</v>
+        <v>425.90441361198953</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>425.9044136119894</v>
+        <v>425.90441361198941</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1546,34 +1635,34 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>508.7130978629065</v>
+        <v>508.71309786290652</v>
       </c>
       <c r="P13">
-        <v>82.8086842509171</v>
+        <v>82.808684250917096</v>
       </c>
       <c r="Q13">
-        <v>1.815351261063907</v>
+        <v>1.8153512610639071</v>
       </c>
       <c r="R13">
-        <v>275.5775642300441</v>
+        <v>275.57756423004412</v>
       </c>
       <c r="S13">
-        <v>6.143233677297228</v>
+        <v>6.1432336772972276</v>
       </c>
       <c r="T13">
-        <v>6.14323367729723</v>
+        <v>6.1432336772972302</v>
       </c>
       <c r="U13">
         <v>1.815351261063908</v>
       </c>
       <c r="V13">
-        <v>275.5775642300442</v>
+        <v>275.57756423004417</v>
       </c>
       <c r="W13">
         <v>120.2645821006348</v>
       </c>
       <c r="X13">
-        <v>546.1689957126243</v>
+        <v>546.16899571262434</v>
       </c>
       <c r="Y13">
         <v>120.2645821006349</v>
@@ -1582,7 +1671,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1605,16 +1694,16 @@
         <v>477.7232870108395</v>
       </c>
       <c r="H14">
-        <v>84.51846150819838</v>
+        <v>84.518461508198385</v>
       </c>
       <c r="I14">
-        <v>393.2048255026411</v>
+        <v>393.20482550264109</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>400.2783421047603</v>
+        <v>400.27834210476033</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1623,28 +1712,28 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.9823285052972767</v>
+        <v>0.98232850529727667</v>
       </c>
       <c r="O14">
-        <v>491.9246229971805</v>
+        <v>491.92462299718051</v>
       </c>
       <c r="P14">
-        <v>91.64628089242009</v>
+        <v>91.646280892420094</v>
       </c>
       <c r="Q14">
         <v>1.680389105463324</v>
       </c>
       <c r="R14">
-        <v>246.2769301369061</v>
+        <v>246.27693013690609</v>
       </c>
       <c r="S14">
-        <v>5.367644144497595</v>
+        <v>5.3676441444975946</v>
       </c>
       <c r="T14">
         <v>5.652295113825514</v>
       </c>
       <c r="U14">
-        <v>1.732061677511814</v>
+        <v>1.7320616775118141</v>
       </c>
       <c r="V14">
         <v>246.8136372820334</v>
@@ -1653,7 +1742,7 @@
         <v>116.5249112513125</v>
       </c>
       <c r="X14">
-        <v>509.7297367539537</v>
+        <v>509.72973675395372</v>
       </c>
       <c r="Y14">
         <v>109.4513946491934</v>
@@ -1662,7 +1751,7 @@
         <v>1.064627012061296</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,19 +1771,19 @@
         <v>5</v>
       </c>
       <c r="G15">
-        <v>555.2819634861353</v>
+        <v>555.28196348613528</v>
       </c>
       <c r="H15">
-        <v>85.95330567014793</v>
+        <v>85.953305670147927</v>
       </c>
       <c r="I15">
-        <v>469.3286578159874</v>
+        <v>469.32865781598741</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>469.3286578159872</v>
+        <v>469.32865781598719</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1709,31 +1798,31 @@
         <v>555.2819634861354</v>
       </c>
       <c r="P15">
-        <v>85.95330567014793</v>
+        <v>85.953305670147927</v>
       </c>
       <c r="Q15">
-        <v>1.865671835579049</v>
+        <v>1.8656718355790489</v>
       </c>
       <c r="R15">
         <v>308.9679962522755</v>
       </c>
       <c r="S15">
-        <v>6.460274670727271</v>
+        <v>6.4602746707272711</v>
       </c>
       <c r="T15">
-        <v>6.46027467072727</v>
+        <v>6.4602746707272702</v>
       </c>
       <c r="U15">
-        <v>1.865671835579049</v>
+        <v>1.8656718355790489</v>
       </c>
       <c r="V15">
-        <v>308.9679962522754</v>
+        <v>308.96799625227538</v>
       </c>
       <c r="W15">
         <v>116.9910186346853</v>
       </c>
       <c r="X15">
-        <v>586.3196764506727</v>
+        <v>586.31967645067266</v>
       </c>
       <c r="Y15">
         <v>116.9910186346854</v>
@@ -1742,7 +1831,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>436.1155860389446</v>
+        <v>436.11558603894463</v>
       </c>
       <c r="H16">
-        <v>86.05431882142432</v>
+        <v>86.054318821424317</v>
       </c>
       <c r="I16">
-        <v>350.0612672175203</v>
+        <v>350.06126721752031</v>
       </c>
       <c r="J16">
         <v>0.1</v>
       </c>
       <c r="K16">
-        <v>394.0685958941361</v>
+        <v>394.06859589413608</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -1783,46 +1872,46 @@
         <v>0.08</v>
       </c>
       <c r="N16">
-        <v>0.8883257150274463</v>
+        <v>0.88832571502744628</v>
       </c>
       <c r="O16">
-        <v>515.1078073503331</v>
+        <v>515.10780735033313</v>
       </c>
       <c r="P16">
-        <v>121.0392114561971</v>
+        <v>121.03921145619709</v>
       </c>
       <c r="Q16">
-        <v>1.448261658695556</v>
+        <v>1.4482616586955559</v>
       </c>
       <c r="R16">
         <v>218.772146743382</v>
       </c>
       <c r="S16">
-        <v>4.255710204595523</v>
+        <v>4.2557102045955233</v>
       </c>
       <c r="T16">
-        <v>5.067910501318942</v>
+        <v>5.0679105013189423</v>
       </c>
       <c r="U16">
-        <v>1.622928602736848</v>
+        <v>1.6229286027368479</v>
       </c>
       <c r="V16">
-        <v>210.4012518131948</v>
+        <v>210.40125181319479</v>
       </c>
       <c r="W16">
-        <v>174.9750034056566</v>
+        <v>174.97500340565659</v>
       </c>
       <c r="X16">
-        <v>525.0362706231768</v>
+        <v>525.03627062317685</v>
       </c>
       <c r="Y16">
-        <v>130.9676747290407</v>
+        <v>130.96767472904071</v>
       </c>
       <c r="Z16">
-        <v>1.336016721436513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>1.3360167214365131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1842,19 +1931,19 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>520.6390650979333</v>
+        <v>520.63906509793333</v>
       </c>
       <c r="H17">
-        <v>83.24285484322451</v>
+        <v>83.242854843224507</v>
       </c>
       <c r="I17">
-        <v>437.3962102547088</v>
+        <v>437.39621025470882</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>437.3962102547087</v>
+        <v>437.39621025470871</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1869,7 +1958,7 @@
         <v>520.6390650979331</v>
       </c>
       <c r="P17">
-        <v>83.24285484322451</v>
+        <v>83.242854843224507</v>
       </c>
       <c r="Q17">
         <v>1.833294730882407</v>
@@ -1881,28 +1970,28 @@
         <v>6.25445950980993</v>
       </c>
       <c r="T17">
-        <v>6.254459509809933</v>
+        <v>6.2544595098099327</v>
       </c>
       <c r="U17">
         <v>1.833294730882407</v>
       </c>
       <c r="V17">
-        <v>284.7875230870163</v>
+        <v>284.78752308701633</v>
       </c>
       <c r="W17">
-        <v>98.89829603560673</v>
+        <v>98.898296035606734</v>
       </c>
       <c r="X17">
-        <v>536.2945062903156</v>
+        <v>536.29450629031555</v>
       </c>
       <c r="Y17">
-        <v>98.89829603560685</v>
+        <v>98.898296035606847</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>0.99999999999999889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +2011,19 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>510.6851241150486</v>
+        <v>510.68512411504861</v>
       </c>
       <c r="H18">
-        <v>88.74371216368671</v>
+        <v>88.743712163686709</v>
       </c>
       <c r="I18">
-        <v>421.9414119513619</v>
+        <v>421.94141195136189</v>
       </c>
       <c r="J18">
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>425.7708876236239</v>
+        <v>425.77088762362388</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1943,46 +2032,46 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9910057831956626</v>
+        <v>0.99100578319566257</v>
       </c>
       <c r="O18">
-        <v>481.9863823675741</v>
+        <v>481.98638236757409</v>
       </c>
       <c r="P18">
-        <v>56.21549474395007</v>
+        <v>56.215494743950067</v>
       </c>
       <c r="Q18">
-        <v>2.148723435214937</v>
+        <v>2.1487234352149369</v>
       </c>
       <c r="R18">
         <v>304.9793366450964</v>
       </c>
       <c r="S18">
-        <v>8.573906261306107</v>
+        <v>8.5739062613061066</v>
       </c>
       <c r="T18">
-        <v>5.754606288872568</v>
+        <v>5.7546062888725684</v>
       </c>
       <c r="U18">
         <v>1.75000062782192</v>
       </c>
       <c r="V18">
-        <v>266.6398599496623</v>
+        <v>266.63985994966231</v>
       </c>
       <c r="W18">
-        <v>134.2195731896118</v>
+        <v>134.21957318961179</v>
       </c>
       <c r="X18">
-        <v>556.1609851409737</v>
+        <v>556.16098514097371</v>
       </c>
       <c r="Y18">
         <v>130.3900975173498</v>
       </c>
       <c r="Z18">
-        <v>1.02936937501525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>1.0293693750152499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2091,19 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>443.6233152765789</v>
+        <v>443.62331527657892</v>
       </c>
       <c r="H19">
-        <v>74.04816212357977</v>
+        <v>74.048162123579772</v>
       </c>
       <c r="I19">
-        <v>369.5751531529991</v>
+        <v>369.57515315299912</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>419.3183567176588</v>
+        <v>419.31835671765879</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2023,25 +2112,25 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.8813712713317877</v>
+        <v>0.88137127133178772</v>
       </c>
       <c r="O19">
-        <v>493.3585999816748</v>
+        <v>493.35859998167479</v>
       </c>
       <c r="P19">
         <v>74.04024326401597</v>
       </c>
       <c r="Q19">
-        <v>1.896627519682138</v>
+        <v>1.8966275196821381</v>
       </c>
       <c r="R19">
         <v>278.8915937791661</v>
       </c>
       <c r="S19">
-        <v>6.663384373582282</v>
+        <v>6.6633843735822822</v>
       </c>
       <c r="T19">
-        <v>5.991010479587747</v>
+        <v>5.9910104795877466</v>
       </c>
       <c r="U19">
         <v>1.790260092322048</v>
@@ -2050,7 +2139,7 @@
         <v>237.0096835933611</v>
       </c>
       <c r="W19">
-        <v>165.9092946024111</v>
+        <v>165.90929460241111</v>
       </c>
       <c r="X19">
         <v>535.4844477554102</v>
@@ -2062,7 +2151,7 @@
         <v>1.428207604476373</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,19 +2171,19 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>531.2647324929367</v>
+        <v>531.26473249293667</v>
       </c>
       <c r="H20">
-        <v>76.54900166790794</v>
+        <v>76.549001667907945</v>
       </c>
       <c r="I20">
-        <v>454.7157308250287</v>
+        <v>454.71573082502869</v>
       </c>
       <c r="J20">
         <v>0.1</v>
       </c>
       <c r="K20">
-        <v>454.7157308250289</v>
+        <v>454.71573082502891</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2103,28 +2192,28 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O20">
-        <v>531.2647324929367</v>
+        <v>531.26473249293667</v>
       </c>
       <c r="P20">
-        <v>76.54900166790794</v>
+        <v>76.549001667907945</v>
       </c>
       <c r="Q20">
-        <v>1.937329371155674</v>
+        <v>1.9373293711556741</v>
       </c>
       <c r="R20">
         <v>306.415101561146</v>
       </c>
       <c r="S20">
-        <v>6.940191523303192</v>
+        <v>6.9401915233031923</v>
       </c>
       <c r="T20">
-        <v>6.940191523303192</v>
+        <v>6.9401915233031923</v>
       </c>
       <c r="U20">
-        <v>1.937329371155674</v>
+        <v>1.9373293711556741</v>
       </c>
       <c r="V20">
         <v>306.415101561146</v>
@@ -2133,16 +2222,16 @@
         <v>105.9038053510268</v>
       </c>
       <c r="X20">
-        <v>560.6195361760556</v>
+        <v>560.61953617605559</v>
       </c>
       <c r="Y20">
         <v>105.9038053510267</v>
       </c>
       <c r="Z20">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>476.973472161071</v>
+        <v>476.97347216107102</v>
       </c>
       <c r="H21">
         <v>114.880243666496</v>
       </c>
       <c r="I21">
-        <v>362.093228494575</v>
+        <v>362.09322849457499</v>
       </c>
       <c r="J21">
         <v>0.1</v>
       </c>
       <c r="K21">
-        <v>362.093228494575</v>
+        <v>362.09322849457499</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2186,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>476.973472161071</v>
+        <v>476.97347216107102</v>
       </c>
       <c r="P21">
         <v>114.880243666496</v>
@@ -2198,10 +2287,10 @@
         <v>198.5530854525156</v>
       </c>
       <c r="S21">
-        <v>4.15191905011755</v>
+        <v>4.1519190501175496</v>
       </c>
       <c r="T21">
-        <v>4.151919050117551</v>
+        <v>4.1519190501175514</v>
       </c>
       <c r="U21">
         <v>1.423570649073707</v>
@@ -2213,7 +2302,7 @@
         <v>114.8802436664961</v>
       </c>
       <c r="X21">
-        <v>476.9734721610711</v>
+        <v>476.97347216107107</v>
       </c>
       <c r="Y21">
         <v>114.8802436664961</v>
@@ -2222,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>559.526617680234</v>
+        <v>559.52661768023404</v>
       </c>
       <c r="H22">
-        <v>40.05137373644595</v>
+        <v>40.051373736445953</v>
       </c>
       <c r="I22">
-        <v>519.4752439437881</v>
+        <v>519.47524394378809</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,46 +2352,46 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O22">
-        <v>559.526617680234</v>
+        <v>559.52661768023404</v>
       </c>
       <c r="P22">
-        <v>40.05137373644595</v>
+        <v>40.051373736445953</v>
       </c>
       <c r="Q22">
-        <v>2.636928127207449</v>
+        <v>2.6369281272074492</v>
       </c>
       <c r="R22">
-        <v>413.8626500048561</v>
+        <v>413.86265000485611</v>
       </c>
       <c r="S22">
-        <v>13.97022287829983</v>
+        <v>13.970222878299831</v>
       </c>
       <c r="T22">
-        <v>13.97022287829983</v>
+        <v>13.970222878299831</v>
       </c>
       <c r="U22">
-        <v>2.636928127207449</v>
+        <v>2.6369281272074492</v>
       </c>
       <c r="V22">
-        <v>413.8626500048561</v>
+        <v>413.86265000485611</v>
       </c>
       <c r="W22">
-        <v>40.05137373644595</v>
+        <v>40.051373736445953</v>
       </c>
       <c r="X22">
-        <v>559.526617680234</v>
+        <v>559.52661768023404</v>
       </c>
       <c r="Y22">
-        <v>40.05137373644584</v>
+        <v>40.051373736445839</v>
       </c>
       <c r="Z22">
-        <v>1.000000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>1.0000000000000031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,19 +2411,19 @@
         <v>5</v>
       </c>
       <c r="G23">
-        <v>417.5139699955774</v>
+        <v>417.51396999557738</v>
       </c>
       <c r="H23">
         <v>18.77211624801404</v>
       </c>
       <c r="I23">
-        <v>398.7418537475634</v>
+        <v>398.74185374756343</v>
       </c>
       <c r="J23">
         <v>0.1</v>
       </c>
       <c r="K23">
-        <v>463.3278609220583</v>
+        <v>463.32786092205828</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2343,31 +2432,31 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.8606040935117441</v>
+        <v>0.86060409351174405</v>
       </c>
       <c r="O23">
-        <v>493.0456122075747</v>
+        <v>493.04561220757472</v>
       </c>
       <c r="P23">
-        <v>29.71775128551649</v>
+        <v>29.717751285516488</v>
       </c>
       <c r="Q23">
-        <v>2.808857135807515</v>
+        <v>2.8088571358075152</v>
       </c>
       <c r="R23">
-        <v>379.8549431635823</v>
+        <v>379.85494316358228</v>
       </c>
       <c r="S23">
-        <v>16.59094618131049</v>
+        <v>16.590946181310489</v>
       </c>
       <c r="T23">
-        <v>22.24117752518966</v>
+        <v>22.241177525189659</v>
       </c>
       <c r="U23">
         <v>3.10194541425729</v>
       </c>
       <c r="V23">
-        <v>340.5117738361315</v>
+        <v>340.51177383613151</v>
       </c>
       <c r="W23">
         <v>108.2964867552819</v>
@@ -2376,13 +2465,13 @@
         <v>507.0383405028453</v>
       </c>
       <c r="Y23">
-        <v>43.71047958078702</v>
+        <v>43.710479580787023</v>
       </c>
       <c r="Z23">
-        <v>2.477586331559806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>2.4775863315598059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2491,19 @@
         <v>5</v>
       </c>
       <c r="G24">
-        <v>465.5592883504563</v>
+        <v>465.55928835045631</v>
       </c>
       <c r="H24">
-        <v>26.44464326022913</v>
+        <v>26.444643260229132</v>
       </c>
       <c r="I24">
-        <v>439.1146450902272</v>
+        <v>439.11464509022721</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>468.524481235491</v>
+        <v>468.52448123549101</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2423,46 +2512,46 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9372288165866796</v>
+        <v>0.93722881658667956</v>
       </c>
       <c r="O24">
-        <v>499.7443452506243</v>
+        <v>499.74434525062429</v>
       </c>
       <c r="P24">
         <v>31.21986401513325</v>
       </c>
       <c r="Q24">
-        <v>2.773042098779568</v>
+        <v>2.7730420987795679</v>
       </c>
       <c r="R24">
-        <v>381.9504840033532</v>
+        <v>381.95048400335321</v>
       </c>
       <c r="S24">
-        <v>16.00725566928743</v>
+        <v>16.007255669287431</v>
       </c>
       <c r="T24">
-        <v>17.60505081384949</v>
+        <v>17.605050813849491</v>
       </c>
       <c r="U24">
-        <v>2.868185838933409</v>
+        <v>2.8681858389334089</v>
       </c>
       <c r="V24">
-        <v>363.2664937755922</v>
+        <v>363.26649377559221</v>
       </c>
       <c r="W24">
-        <v>84.49813926599944</v>
+        <v>84.498139265999441</v>
       </c>
       <c r="X24">
         <v>523.6127843562266</v>
       </c>
       <c r="Y24">
-        <v>55.08830312073565</v>
+        <v>55.088303120735652</v>
       </c>
       <c r="Z24">
-        <v>1.533867163793501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1.5338671637935011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,10 +2571,10 @@
         <v>5</v>
       </c>
       <c r="G25">
-        <v>468.1830607493796</v>
+        <v>468.18306074937959</v>
       </c>
       <c r="H25">
-        <v>26.97710762516217</v>
+        <v>26.977107625162169</v>
       </c>
       <c r="I25">
         <v>441.2059531242175</v>
@@ -2494,7 +2583,7 @@
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>444.7689022907793</v>
+        <v>444.76890229077929</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2503,46 +2592,46 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.9919892124916764</v>
+        <v>0.99198921249167638</v>
       </c>
       <c r="O25">
-        <v>491.8313005742151</v>
+        <v>491.83130057421511</v>
       </c>
       <c r="P25">
-        <v>47.06239828343566</v>
+        <v>47.062398283435662</v>
       </c>
       <c r="Q25">
         <v>2.346661428432407</v>
       </c>
       <c r="R25">
-        <v>334.3293875095175</v>
+        <v>334.32938750951752</v>
       </c>
       <c r="S25">
         <v>10.45062127119269</v>
       </c>
       <c r="T25">
-        <v>17.35482792501797</v>
+        <v>17.354827925017968</v>
       </c>
       <c r="U25">
         <v>2.853870734255548</v>
       </c>
       <c r="V25">
-        <v>364.216775177905</v>
+        <v>364.21677517790499</v>
       </c>
       <c r="W25">
-        <v>56.30312593054236</v>
+        <v>56.303125930542357</v>
       </c>
       <c r="X25">
-        <v>497.5090790547599</v>
+        <v>497.50907905475992</v>
       </c>
       <c r="Y25">
-        <v>52.74017676398057</v>
+        <v>52.740176763980571</v>
       </c>
       <c r="Z25">
         <v>1.067556640595015</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2651,19 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>471.7270254050335</v>
+        <v>471.72702540503349</v>
       </c>
       <c r="H26">
-        <v>24.93404789061673</v>
+        <v>24.934047890616728</v>
       </c>
       <c r="I26">
-        <v>446.7929775144167</v>
+        <v>446.79297751441669</v>
       </c>
       <c r="J26">
         <v>0.1</v>
       </c>
       <c r="K26">
-        <v>446.7929775144167</v>
+        <v>446.79297751441669</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2586,43 +2675,43 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>471.7270254050334</v>
+        <v>471.72702540503337</v>
       </c>
       <c r="P26">
-        <v>24.93404789061673</v>
+        <v>24.934047890616728</v>
       </c>
       <c r="Q26">
-        <v>2.940166227662251</v>
+        <v>2.9401662276622509</v>
       </c>
       <c r="R26">
-        <v>373.4827319875121</v>
+        <v>373.48273198751212</v>
       </c>
       <c r="S26">
-        <v>18.9189909105194</v>
+        <v>18.918990910519401</v>
       </c>
       <c r="T26">
-        <v>18.9189909105194</v>
+        <v>18.918990910519401</v>
       </c>
       <c r="U26">
-        <v>2.940166227662252</v>
+        <v>2.9401662276622522</v>
       </c>
       <c r="V26">
-        <v>373.4827319875122</v>
+        <v>373.48273198751218</v>
       </c>
       <c r="W26">
-        <v>38.45946074742454</v>
+        <v>38.459460747424536</v>
       </c>
       <c r="X26">
-        <v>485.2524382618413</v>
+        <v>485.25243826184129</v>
       </c>
       <c r="Y26">
-        <v>38.45946074742454</v>
+        <v>38.459460747424536</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>520.3455362958456</v>
+        <v>520.34553629584559</v>
       </c>
       <c r="H27">
-        <v>23.73852363547199</v>
+        <v>23.738523635471989</v>
       </c>
       <c r="I27">
-        <v>496.6070126603736</v>
+        <v>496.60701266037358</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>496.735865126776</v>
+        <v>496.73586512677599</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2663,7 +2752,7 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.9997406016447603</v>
+        <v>0.99974060164476031</v>
       </c>
       <c r="O27">
         <v>522.9145631738611</v>
@@ -2675,34 +2764,34 @@
         <v>2.99447206316484</v>
       </c>
       <c r="R27">
-        <v>418.3444851747516</v>
+        <v>418.34448517475158</v>
       </c>
       <c r="S27">
-        <v>19.97481166685007</v>
+        <v>19.974811666850069</v>
       </c>
       <c r="T27">
-        <v>21.91987776014444</v>
+        <v>21.919877760144441</v>
       </c>
       <c r="U27">
         <v>3.087393885428519</v>
       </c>
       <c r="V27">
-        <v>423.316839939117</v>
+        <v>423.31683993911702</v>
       </c>
       <c r="W27">
-        <v>40.35625901375363</v>
+        <v>40.356259013753629</v>
       </c>
       <c r="X27">
-        <v>536.9632716741272</v>
+        <v>536.96327167412721</v>
       </c>
       <c r="Y27">
-        <v>40.22740654735117</v>
+        <v>40.227406547351173</v>
       </c>
       <c r="Z27">
-        <v>1.003203101503717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>1.0032031015037171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2725,16 +2814,16 @@
         <v>524.314607611366</v>
       </c>
       <c r="H28">
-        <v>35.85555217721165</v>
+        <v>35.855552177211649</v>
       </c>
       <c r="I28">
-        <v>488.4590554341544</v>
+        <v>488.45905543415438</v>
       </c>
       <c r="J28">
         <v>0.1</v>
       </c>
       <c r="K28">
-        <v>502.3487051380018</v>
+        <v>502.34870513800178</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -2743,46 +2832,46 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>0.9723505812560385</v>
+        <v>0.97235058125603846</v>
       </c>
       <c r="O28">
-        <v>543.2709599532117</v>
+        <v>543.27095995321167</v>
       </c>
       <c r="P28">
-        <v>40.92225481520988</v>
+        <v>40.922254815209882</v>
       </c>
       <c r="Q28">
-        <v>2.585934158334515</v>
+        <v>2.5859341583345148</v>
       </c>
       <c r="R28">
-        <v>396.5264485752814</v>
+        <v>396.52644857528139</v>
       </c>
       <c r="S28">
         <v>13.27568489093348</v>
       </c>
       <c r="T28">
-        <v>14.62296843233666</v>
+        <v>14.622968432336661</v>
       </c>
       <c r="U28">
-        <v>2.682593472859489</v>
+        <v>2.6825934728594891</v>
       </c>
       <c r="V28">
-        <v>392.2731851977936</v>
+        <v>392.27318519779362</v>
       </c>
       <c r="W28">
-        <v>61.02932750998082</v>
+        <v>61.029327509980817</v>
       </c>
       <c r="X28">
         <v>549.4883829441352</v>
       </c>
       <c r="Y28">
-        <v>47.13967780613336</v>
+        <v>47.139677806133363</v>
       </c>
       <c r="Z28">
-        <v>1.294648804367523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>1.2946488043675231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,13 +2891,13 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>485.9874091595764</v>
+        <v>485.98740915957637</v>
       </c>
       <c r="H29">
-        <v>28.71484653470094</v>
+        <v>28.714846534700939</v>
       </c>
       <c r="I29">
-        <v>457.2725626248755</v>
+        <v>457.27256262487549</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -2823,46 +2912,46 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O29">
-        <v>485.9874091595764</v>
+        <v>485.98740915957637</v>
       </c>
       <c r="P29">
-        <v>28.71484653470094</v>
+        <v>28.714846534700939</v>
       </c>
       <c r="Q29">
-        <v>2.828768426613568</v>
+        <v>2.8287684266135682</v>
       </c>
       <c r="R29">
-        <v>376.0449113724594</v>
+        <v>376.04491137245941</v>
       </c>
       <c r="S29">
-        <v>16.92460409190335</v>
+        <v>16.924604091903351</v>
       </c>
       <c r="T29">
-        <v>16.92460409190335</v>
+        <v>16.924604091903351</v>
       </c>
       <c r="U29">
-        <v>2.828768426613568</v>
+        <v>2.8287684266135682</v>
       </c>
       <c r="V29">
-        <v>376.0449113724594</v>
+        <v>376.04491137245941</v>
       </c>
       <c r="W29">
-        <v>35.95380148278593</v>
+        <v>35.953801482785927</v>
       </c>
       <c r="X29">
-        <v>493.2263641076614</v>
+        <v>493.22636410766142</v>
       </c>
       <c r="Y29">
-        <v>35.95380148278582</v>
+        <v>35.953801482785821</v>
       </c>
       <c r="Z29">
-        <v>1.000000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>1.0000000000000031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,19 +2971,19 @@
         <v>5</v>
       </c>
       <c r="G30">
-        <v>464.8537676893314</v>
+        <v>464.85376768933139</v>
       </c>
       <c r="H30">
-        <v>28.29539384300365</v>
+        <v>28.295393843003652</v>
       </c>
       <c r="I30">
-        <v>436.5583738463278</v>
+        <v>436.55837384632781</v>
       </c>
       <c r="J30">
         <v>0.1</v>
       </c>
       <c r="K30">
-        <v>481.2265718993983</v>
+        <v>481.22657189939832</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -2903,46 +2992,46 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.9071784463672373</v>
+        <v>0.90717844636723732</v>
       </c>
       <c r="O30">
-        <v>519.8803629024582</v>
+        <v>519.88036290245816</v>
       </c>
       <c r="P30">
-        <v>38.65379100305991</v>
+        <v>38.653791003059908</v>
       </c>
       <c r="Q30">
-        <v>2.598953858079409</v>
+        <v>2.5989538580794092</v>
       </c>
       <c r="R30">
-        <v>380.7671526426005</v>
+        <v>380.76715264260048</v>
       </c>
       <c r="S30">
-        <v>13.44966041911137</v>
+        <v>13.449660419111369</v>
       </c>
       <c r="T30">
-        <v>16.42860213462876</v>
+        <v>16.428602134628761</v>
       </c>
       <c r="U30">
-        <v>2.79902384837055</v>
+        <v>2.7990238483705498</v>
       </c>
       <c r="V30">
-        <v>357.3588916807233</v>
+        <v>357.35889168072327</v>
       </c>
       <c r="W30">
-        <v>93.19619693787536</v>
+        <v>93.196196937875357</v>
       </c>
       <c r="X30">
-        <v>529.7545707842031</v>
+        <v>529.75457078420311</v>
       </c>
       <c r="Y30">
-        <v>48.52799888480484</v>
+        <v>48.527998884804838</v>
       </c>
       <c r="Z30">
         <v>1.920462394484951</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3051,19 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <v>463.011372205296</v>
+        <v>463.01137220529603</v>
       </c>
       <c r="H31">
-        <v>33.72671788115478</v>
+        <v>33.726717881154777</v>
       </c>
       <c r="I31">
-        <v>429.2846543241412</v>
+        <v>429.28465432414117</v>
       </c>
       <c r="J31">
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>438.9792783354123</v>
+        <v>438.97927833541229</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2983,22 +3072,22 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.9779155315758121</v>
+        <v>0.97791553157581212</v>
       </c>
       <c r="O31">
-        <v>483.3668853175453</v>
+        <v>483.36688531754533</v>
       </c>
       <c r="P31">
-        <v>44.38760698213287</v>
+        <v>44.387606982132873</v>
       </c>
       <c r="Q31">
-        <v>2.387815653783227</v>
+        <v>2.3878156537832269</v>
       </c>
       <c r="R31">
-        <v>332.9898555494979</v>
+        <v>332.98985554949792</v>
       </c>
       <c r="S31">
-        <v>10.88968111103878</v>
+        <v>10.889681111038779</v>
       </c>
       <c r="T31">
         <v>13.72832582870477</v>
@@ -3007,22 +3096,65 @@
         <v>2.619461277072392</v>
       </c>
       <c r="V31">
-        <v>340.9388228317112</v>
+        <v>340.93882283171121</v>
       </c>
       <c r="W31">
-        <v>55.09656081365631</v>
+        <v>55.096560813656311</v>
       </c>
       <c r="X31">
-        <v>484.3812151377975</v>
+        <v>484.38121513779748</v>
       </c>
       <c r="Y31">
-        <v>45.40193680238514</v>
+        <v>45.401936802385137</v>
       </c>
       <c r="Z31">
         <v>1.21352886449465</v>
       </c>
     </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.10000000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.96700086891436499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.1880272084274244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.81592772836425187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>2.4775863315598059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>